--- a/event_dict2.xlsx
+++ b/event_dict2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniil\Desktop\New folder (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4072,13 +4072,13 @@
     <t>logstream.request</t>
   </si>
   <si>
-    <t>ТС: LogStream сетевой запрос</t>
-  </si>
-  <si>
     <t>logstream.click</t>
   </si>
   <si>
-    <t>ТС: LogStream клик по любому кликабельному элементу</t>
+    <t>ТС: LogStream клик</t>
+  </si>
+  <si>
+    <t>ТС: LogStream запрос</t>
   </si>
 </sst>
 </file>
@@ -4518,7 +4518,7 @@
   <dimension ref="A1:C657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D667" sqref="D667"/>
+      <selection activeCell="B567" sqref="B567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
@@ -11733,7 +11733,7 @@
         <v>1343</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>1148</v>
@@ -11741,10 +11741,10 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B657" s="3" t="s">
         <v>1345</v>
-      </c>
-      <c r="B657" s="3" t="s">
-        <v>1346</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>1148</v>
